--- a/dist/document/dest/2020/10/khai/8_ltl.xlsx
+++ b/dist/document/dest/2020/10/khai/8_ltl.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Khải</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Lý Thanh Lãm</t>
+    <t>TDV: Khải</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 8</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,34 +46,37 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Pharcotinex</t>
-  </si>
-  <si>
-    <t>Sopezid</t>
-  </si>
-  <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Uvomo</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Zantagel</t>
-  </si>
-  <si>
-    <t>Cimrinat</t>
-  </si>
-  <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Fagendol</t>
+    <t>Phar*******</t>
+  </si>
+  <si>
+    <t>Sope***</t>
+  </si>
+  <si>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Uvom*</t>
+  </si>
+  <si>
+    <t>Card*****</t>
+  </si>
+  <si>
+    <t>Pice****</t>
+  </si>
+  <si>
+    <t>Zant****</t>
+  </si>
+  <si>
+    <t>Cimr****</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Fage****</t>
+  </si>
+  <si>
+    <t>Bonz****</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -608,19 +611,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>2007</v>
+        <v>4602</v>
       </c>
       <c r="D6" s="10">
         <v>3600</v>
       </c>
       <c r="E6" s="10">
-        <v>7225200</v>
+        <v>16567200</v>
       </c>
       <c r="F6" s="10">
         <v>25</v>
       </c>
       <c r="G6" s="10">
-        <v>1806300</v>
+        <v>4141800</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>15163</v>
       </c>
       <c r="D7" s="10">
         <v>15000</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>227445000</v>
       </c>
       <c r="F7" s="10">
         <v>42</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>95526900</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -654,19 +657,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>1575</v>
+        <v>4799</v>
       </c>
       <c r="D8" s="10">
         <v>4000</v>
       </c>
       <c r="E8" s="10">
-        <v>6300000</v>
+        <v>19196000</v>
       </c>
       <c r="F8" s="10">
         <v>35</v>
       </c>
       <c r="G8" s="10">
-        <v>2205000</v>
+        <v>6718600</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,19 +680,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>300</v>
+        <v>5310</v>
       </c>
       <c r="D9" s="10">
         <v>3300</v>
       </c>
       <c r="E9" s="10">
-        <v>990000</v>
+        <v>17523000</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>445500</v>
+        <v>7885350</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,19 +703,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>702</v>
+        <v>5368</v>
       </c>
       <c r="D10" s="10">
         <v>13000</v>
       </c>
       <c r="E10" s="10">
-        <v>9126000</v>
+        <v>69784000</v>
       </c>
       <c r="F10" s="10">
         <v>45</v>
       </c>
       <c r="G10" s="10">
-        <v>4106700</v>
+        <v>31402800</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,19 +726,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
+        <v>2414</v>
       </c>
       <c r="D11" s="10">
         <v>2900</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>7000600</v>
       </c>
       <c r="F11" s="10">
         <v>35</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>2450210</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -746,19 +749,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>1094</v>
+        <v>11767</v>
       </c>
       <c r="D12" s="10">
         <v>6926</v>
       </c>
       <c r="E12" s="10">
-        <v>7577044</v>
+        <v>81498242</v>
       </c>
       <c r="F12" s="10">
         <v>30</v>
       </c>
       <c r="G12" s="10">
-        <v>2273113.2</v>
+        <v>24449472.6</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -769,19 +772,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="D13" s="10">
         <v>24000</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>22080000</v>
       </c>
       <c r="F13" s="10">
         <v>42</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>9273600</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -792,19 +795,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>0</v>
+        <v>2303</v>
       </c>
       <c r="D14" s="10">
         <v>9000</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>20727000</v>
       </c>
       <c r="F14" s="10">
         <v>45</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
+        <v>9327150</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -815,54 +818,77 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>60</v>
+        <v>3229</v>
       </c>
       <c r="D15" s="10">
         <v>2600</v>
       </c>
       <c r="E15" s="10">
-        <v>156000</v>
+        <v>8395400</v>
       </c>
       <c r="F15" s="10">
         <v>40</v>
       </c>
       <c r="G15" s="10">
-        <v>62400</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+        <v>3358160</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11">
-        <v>5738</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>31374244</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
-        <v>10899013.2</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="C16" s="10">
+        <v>675</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8900</v>
+      </c>
+      <c r="E16" s="10">
+        <v>6007500</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2703375</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11">
+        <v>56550</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>496223942</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>197237417.6</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
